--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_6_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_6_28.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>91408.6694157202</v>
+        <v>6506220.642052837</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>91408.6694157202</v>
+        <v>6506220.642052837</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1609175386.801142</v>
+        <v>57749761.70270703</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16365.53731883165</v>
+        <v>1280987.921267446</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>32140.4115400859</v>
+        <v>2460049.301469077</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>47908.52969392919</v>
+        <v>3639110.681670709</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>64767.08694504967</v>
+        <v>4742106.444925923</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>80899.48568088695</v>
+        <v>5918928.253393449</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>97031.8844167245</v>
+        <v>7095750.061860956</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>113164.283152562</v>
+        <v>8272571.870328457</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>129296.6818883981</v>
+        <v>9449393.678796066</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>146155.2391395196</v>
+        <v>10552389.44205113</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>162287.6378753531</v>
+        <v>11729211.25051897</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>178404.4723050578</v>
+        <v>12907090.87898727</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>194521.3067347624</v>
+        <v>14084970.50745557</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>210638.1411644671</v>
+        <v>15262850.13592389</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>227496.6984155884</v>
+        <v>16365845.89917895</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>246419.1316347106</v>
+        <v>17204502.25664198</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>133.0000000000605</v>
@@ -27055,10 +27055,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>89.00000000006094</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>1374</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
